--- a/语音数据.xlsx
+++ b/语音数据.xlsx
@@ -84,7 +84,7 @@
     <t>滢宝の纯音</t>
   </si>
   <si>
-    <t>分裂の滢宝</t>
+    <t>精分の滢宝</t>
   </si>
   <si>
     <t>滢宝のmua</t>
@@ -1382,10 +1382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1434,14 +1434,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,7 +1448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1468,8 +1461,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,21 +1503,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1522,16 +1530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1539,7 +1539,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,13 +1570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,55 +1594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,13 +1612,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,13 +1708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,31 +1726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,25 +1744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,6 +1816,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1834,8 +1843,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,15 +1869,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,10 +1921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1933,16 +1933,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1954,112 +1954,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2495,7 +2495,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -55617,7 +55617,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G32 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
